--- a/results/SOA results/gamm_SOA_model_selection.xlsx
+++ b/results/SOA results/gamm_SOA_model_selection.xlsx
@@ -479,28 +479,28 @@
         <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>39.3271858672674</v>
+        <v>39.7741120585799</v>
       </c>
       <c r="D2" t="n">
-        <v>-4494.06405419129</v>
+        <v>-4446.38897826738</v>
       </c>
       <c r="E2" t="n">
-        <v>9070.95579067745</v>
+        <v>8976.28504729307</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.971698107610557</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>9278.972051699</v>
+        <v>9186.00759785883</v>
       </c>
       <c r="I2" t="n">
-        <v>241351.712289256</v>
+        <v>212197.971105761</v>
       </c>
       <c r="J2" t="n">
-        <v>1082.67281413273</v>
+        <v>1082.22588794142</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         <v>9079.24652861638</v>
       </c>
       <c r="F3" t="n">
-        <v>8.2907379389344</v>
+        <v>102.961481323311</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0153893574812468</v>
+        <v>0.0000000000000000000000438731085200036</v>
       </c>
       <c r="H3" t="n">
         <v>9301.23054674478</v>
@@ -552,10 +552,10 @@
         <v>9079.59748393636</v>
       </c>
       <c r="F4" t="n">
-        <v>8.64169325891089</v>
+        <v>103.312436643288</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0129125349081967</v>
+        <v>0.0000000000000000000000368120011498852</v>
       </c>
       <c r="H4" t="n">
         <v>9301.27587562864</v>
@@ -584,10 +584,10 @@
         <v>9188.09374213157</v>
       </c>
       <c r="F5" t="n">
-        <v>117.137951454117</v>
+        <v>211.808694838493</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0000000000000000000000000355916717946782</v>
+        <v>0.000000000000000000000000000000000000000000000101467347220903</v>
       </c>
       <c r="H5" t="n">
         <v>9390.44619589228</v>
@@ -616,10 +616,10 @@
         <v>9251.97095479142</v>
       </c>
       <c r="F6" t="n">
-        <v>181.015164113966</v>
+        <v>275.685907498342</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00000000000000000000000000000000000000047927844682333</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000136636213268829</v>
       </c>
       <c r="H6" t="n">
         <v>9444.61716557439</v>
@@ -648,10 +648,10 @@
         <v>9662.24516021475</v>
       </c>
       <c r="F7" t="n">
-        <v>591.289369537302</v>
+        <v>685.960112921679</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000038965132545005</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000111084656440435</v>
       </c>
       <c r="H7" t="n">
         <v>9761.47184877672</v>
@@ -680,10 +680,10 @@
         <v>9689.10600798152</v>
       </c>
       <c r="F8" t="n">
-        <v>618.15021730407</v>
+        <v>712.820960688447</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000572686803487259</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000163265752374575</v>
       </c>
       <c r="H8" t="n">
         <v>9777.77675037761</v>
@@ -712,10 +712,10 @@
         <v>9695.04747853099</v>
       </c>
       <c r="F9" t="n">
-        <v>624.091687853535</v>
+        <v>718.762431237912</v>
       </c>
       <c r="G9" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000293591338348731</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000836991710901724</v>
       </c>
       <c r="H9" t="n">
         <v>9773.66880423057</v>
@@ -744,10 +744,10 @@
         <v>9747.01468906887</v>
       </c>
       <c r="F10" t="n">
-        <v>676.058898391422</v>
+        <v>770.729641775799</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000152477881892675</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000434695124038125</v>
       </c>
       <c r="H10" t="n">
         <v>9820.09193900943</v>
@@ -776,10 +776,10 @@
         <v>10227.9773955505</v>
       </c>
       <c r="F11" t="n">
-        <v>1157.02160487309</v>
+        <v>1251.69234825747</v>
       </c>
       <c r="G11" t="n">
-        <v>5.53964758717002e-252</v>
+        <v>1.57928334597889e-272</v>
       </c>
       <c r="H11" t="n">
         <v>10263.1071762591</v>
@@ -808,10 +808,10 @@
         <v>10469.1089980534</v>
       </c>
       <c r="F12" t="n">
-        <v>1398.15320737594</v>
+        <v>1492.82395076031</v>
       </c>
       <c r="G12" t="n">
-        <v>2.41223685004431e-304</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>10489.2004703977</v>

--- a/results/SOA results/gamm_SOA_model_selection.xlsx
+++ b/results/SOA results/gamm_SOA_model_selection.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">model</t>
   </si>
@@ -44,67 +44,25 @@
     <t xml:space="preserve">df.residual</t>
   </si>
   <si>
-    <t xml:space="preserve">fs ~ fish_basin + s(doy, by = fish_basin, bs = "cc", k = 15) + s(year, by = fish_basin, bs = c("re"), k = c(2)) + ACF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fs ~ fish_basin + s(doy, by = fish_basin, bs = "cc", k = 15) + s(year, by = fish_basin, bs = c("re"), k = c(2))</t>
+    <t xml:space="preserve">fs ~ s(doy, bs = "cc", k = 17) + s(year, bs = c("re"), k = c(2)) + ACF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fs ~ s(doy, bs = "cc", k = 17) + s(year, bs = c("re"), k = c(2))</t>
   </si>
   <si>
     <t xml:space="preserve">m</t>
   </si>
   <si>
-    <t xml:space="preserve">fs ~ s(doy, by = fish_basin, bs = "cc", k = 15) + s(year, by = fish_basin, bs = c("re"), k = c(2))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fs ~ fish_basin + s(doy, by = fish_basin, bs = "cc", k = 15)</t>
+    <t xml:space="preserve">fs ~ s(doy, bs = "cc", k = 17)</t>
   </si>
   <si>
     <t xml:space="preserve">m1</t>
   </si>
   <si>
-    <t xml:space="preserve">fs ~ s(doy, by = fish_basin, bs = "cc", k = 15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fs ~ fish_basin + s(doy, bs = "cc", k = 15) + s(year, by = fish_basin, bs = c("re"), k = c(2))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fs ~ fish_basin + s(doy, bs = "cc", k = 15) + s(year, bs = c("re"), k = c(2))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fs ~ s(doy, bs = "cc", k = 15) + s(year, bs = c("re"), k = c(2))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fs ~ s(doy, bs = "cc", k = 15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m6</t>
-  </si>
-  <si>
     <t xml:space="preserve">fs ~ s(year, by = fish_basin, bs = c("re"), k = c(2))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fs ~ fish_basin</t>
   </si>
   <si>
     <t xml:space="preserve">m2</t>
@@ -479,28 +437,28 @@
         <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>39.7741120585799</v>
+        <v>16.2782126964364</v>
       </c>
       <c r="D2" t="n">
-        <v>-4446.38897826738</v>
+        <v>-4756.89140699311</v>
       </c>
       <c r="E2" t="n">
-        <v>8976.28504729307</v>
+        <v>9548.57207274093</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0.999996280595437</v>
       </c>
       <c r="H2" t="n">
-        <v>9186.00759785883</v>
+        <v>9635.94300150968</v>
       </c>
       <c r="I2" t="n">
-        <v>212197.971105761</v>
+        <v>323369.123053814</v>
       </c>
       <c r="J2" t="n">
-        <v>1082.22588794142</v>
+        <v>1105.72178730356</v>
       </c>
     </row>
     <row r="3">
@@ -511,28 +469,28 @@
         <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>41.8533763769847</v>
+        <v>16.0197552289206</v>
       </c>
       <c r="D3" t="n">
-        <v>-4495.42859020487</v>
+        <v>-4769.6104067042</v>
       </c>
       <c r="E3" t="n">
-        <v>9079.24652861638</v>
+        <v>9573.57595923433</v>
       </c>
       <c r="F3" t="n">
-        <v>102.961481323311</v>
+        <v>25.0038864933977</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0000000000000000000000438731085200036</v>
+        <v>0.0000037194045633353</v>
       </c>
       <c r="H3" t="n">
-        <v>9301.23054674478</v>
+        <v>9659.8566420152</v>
       </c>
       <c r="I3" t="n">
-        <v>198438.144004943</v>
+        <v>323505.16353431</v>
       </c>
       <c r="J3" t="n">
-        <v>1080.14662362302</v>
+        <v>1105.98024477108</v>
       </c>
     </row>
     <row r="4">
@@ -543,28 +501,28 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>41.7138967570801</v>
+        <v>14.9922366367268</v>
       </c>
       <c r="D4" t="n">
-        <v>-4495.66491486121</v>
+        <v>-4797.50848108373</v>
       </c>
       <c r="E4" t="n">
-        <v>9079.59748393636</v>
+        <v>9627.28828805908</v>
       </c>
       <c r="F4" t="n">
-        <v>103.312436643288</v>
+        <v>78.7162153181544</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0000000000000000000000368120011498852</v>
+        <v>0.00000000000000000807215346917116</v>
       </c>
       <c r="H4" t="n">
-        <v>9301.27587562864</v>
+        <v>9708.33559451738</v>
       </c>
       <c r="I4" t="n">
-        <v>198521.754887563</v>
+        <v>339999.539474341</v>
       </c>
       <c r="J4" t="n">
-        <v>1080.28610324292</v>
+        <v>1107.00776336327</v>
       </c>
     </row>
     <row r="5">
@@ -575,252 +533,28 @@
         <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>38.3655320510129</v>
+        <v>5.85558981254021</v>
       </c>
       <c r="D5" t="n">
-        <v>-4553.76063414043</v>
+        <v>-5106.99472936787</v>
       </c>
       <c r="E5" t="n">
-        <v>9188.09374213157</v>
+        <v>10227.9773955505</v>
       </c>
       <c r="F5" t="n">
-        <v>211.808694838493</v>
+        <v>679.405322809611</v>
       </c>
       <c r="G5" t="n">
-        <v>0.000000000000000000000000000000000000000000000101467347220903</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000294446942299661</v>
       </c>
       <c r="H5" t="n">
-        <v>9390.44619589228</v>
+        <v>10263.1071762591</v>
       </c>
       <c r="I5" t="n">
-        <v>220182.362271247</v>
+        <v>590289.535636571</v>
       </c>
       <c r="J5" t="n">
-        <v>1083.63446794899</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="n">
-        <v>36.6263554210374</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-4587.63165096002</v>
-      </c>
-      <c r="E6" t="n">
-        <v>9251.97095479142</v>
-      </c>
-      <c r="F6" t="n">
-        <v>275.685907498342</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000136636213268829</v>
-      </c>
-      <c r="H6" t="n">
-        <v>9444.61716557439</v>
-      </c>
-      <c r="I6" t="n">
-        <v>233885.637314793</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1085.37364457896</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="n">
-        <v>18.3874397459871</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-4811.36759413892</v>
-      </c>
-      <c r="E7" t="n">
-        <v>9662.24516021475</v>
-      </c>
-      <c r="F7" t="n">
-        <v>685.960112921679</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000111084656440435</v>
-      </c>
-      <c r="H7" t="n">
-        <v>9761.47184877672</v>
-      </c>
-      <c r="I7" t="n">
-        <v>348503.601510876</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1103.61256025401</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="n">
-        <v>16.4097564048899</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-4826.8995954448</v>
-      </c>
-      <c r="E8" t="n">
-        <v>9689.10600798152</v>
-      </c>
-      <c r="F8" t="n">
-        <v>712.820960688447</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000163265752374575</v>
-      </c>
-      <c r="H8" t="n">
-        <v>9777.77675037761</v>
-      </c>
-      <c r="I8" t="n">
-        <v>358287.179178646</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1105.59024359511</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="n">
-        <v>14.4002921848128</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-4831.87106347307</v>
-      </c>
-      <c r="E9" t="n">
-        <v>9695.04747853099</v>
-      </c>
-      <c r="F9" t="n">
-        <v>718.762431237912</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000836991710901724</v>
-      </c>
-      <c r="H9" t="n">
-        <v>9773.66880423057</v>
-      </c>
-      <c r="I9" t="n">
-        <v>361476.357425547</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1107.59970781519</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="n">
-        <v>13.3063269088763</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-4858.95843568631</v>
-      </c>
-      <c r="E10" t="n">
-        <v>9747.01468906887</v>
-      </c>
-      <c r="F10" t="n">
-        <v>770.729641775799</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000434695124038125</v>
-      </c>
-      <c r="H10" t="n">
-        <v>9820.09193900943</v>
-      </c>
-      <c r="I10" t="n">
-        <v>379358.141812825</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1108.69367309112</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.85558981254021</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-5106.99472936787</v>
-      </c>
-      <c r="E11" t="n">
-        <v>10227.9773955505</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1251.69234825747</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.57928334597889e-272</v>
-      </c>
-      <c r="H11" t="n">
-        <v>10263.1071762591</v>
-      </c>
-      <c r="I11" t="n">
-        <v>590289.535636571</v>
-      </c>
-      <c r="J11" t="n">
         <v>1116.14441018746</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-5230.55449902669</v>
-      </c>
-      <c r="E12" t="n">
-        <v>10469.1089980534</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1492.82395076031</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>10489.2004703977</v>
-      </c>
-      <c r="I12" t="n">
-        <v>735729.334218609</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1119</v>
       </c>
     </row>
   </sheetData>
